--- a/biology/Médecine/Rôle_propre_infirmier/Rôle_propre_infirmier.xlsx
+++ b/biology/Médecine/Rôle_propre_infirmier/Rôle_propre_infirmier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%B4le_propre_infirmier</t>
+          <t>Rôle_propre_infirmier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rôle propre infirmier recouvre communément les actes de soins infirmiers qu'un infirmier peut mettre en œuvre de façon autonome dans le cadre de son activité professionnelle. Le rôle propre infirmier se complète par le rôle médico-délégué, qui regroupe les interventions que le professionnel effectue après avis ou prescription médicale. La législation relative à l'exercice du métier d'infirmier de chaque pays précise au travers d'un décret la liste des actes du rôle propre.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%B4le_propre_infirmier</t>
+          <t>Rôle_propre_infirmier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rôle propre de l'infirmier est de considérer la personne dans sa globalité - en tant qu'être bio-psycho-socio-spirituel - et d'accompagner cet être pour lui proposer une aide personnalisée et professionnelle qui lui permettra de conserver ou de retrouver la santé dans toutes ces dimensions.
 Le champ d'action de cette activité infirmière se définit autour des réactions humaines de santé. Le savoir-faire spécifique infirmier est la connaissance approfondie des réactions humaines de santé. Cette connaissance permet à l'infirmière de poser des diagnostics infirmiers.
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%B4le_propre_infirmier</t>
+          <t>Rôle_propre_infirmier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,7 +571,9 @@
           <t>Histoire et origines du rôle propre infirmier</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'avènement du rôle propre infirmier (ou rôle autonome) est en lien avec l'évolution de la profession infirmière au cours du temps. De la création de la première école d'infirmières en Angleterre par Florence Nightingale, avec la formation du Nightingale Pledge en 1893 (comité validant une formation nationale commune aux États-Unis d'Amérique), puis par la création en 1909 du département Soins infirmiers à la Croix Rouge, la profession s'est recentrée autour d'une définition unique du métier d'infirmier.
 Cette définition reconnue et adoptée peu à peu par la communauté médicale internationale, a contribué à en asseoir un rôle à la fois plus précis et plus autonome : le médecin se préoccupait de la maladie de la personne, alors que l'infirmière formée par ses pairs s'occupait du quotidien du malade.
@@ -574,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%B4le_propre_infirmier</t>
+          <t>Rôle_propre_infirmier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,8 +610,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">En France
-Issu du décret n° 2004-802 du 29 juillet 2004 code de la santé publique, le rôle propre de l'infirmier est précisé aux articles R 4311-1 à R 4311-5 :
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Issu du décret n° 2004-802 du 29 juillet 2004 code de la santé publique, le rôle propre de l'infirmier est précisé aux articles R 4311-1 à R 4311-5 :
 Article R. 4311-3 : « Relèvent du rôle propre de l'infirmier ou de l'infirmière les soins liés aux fonctions d'entretien et de continuité de la vie et visant à compenser partiellement ou totalement un manque ou une diminution d'autonomie d'une personne ou d'un groupe de personnes. Dans ce cadre, l'infirmier ou l'infirmière a compétence pour prendre les initiatives et accomplir les soins qu'il juge nécessaires conformément aux dispositions des articles R. 4311-5 et R. 4311-6. Il identifie les besoins de la personne, pose un diagnostic infirmier, formule des objectifs de soins, met en œuvre les actions appropriées et les évalue. Il peut élaborer, avec la participation des membres de l'équipe soignante, des protocoles de soins infirmiers relevant de son initiative. Il est chargé de la conception, de l'utilisation et de la gestion du dossier de soins infirmiers.
 Soins et procédés visant à assurer l'hygiène de la personne et de son environnement ;
 Surveillance de l'hygiène et de l'équilibre alimentaire ;
@@ -645,10 +666,44 @@
 Entretien d'accueil du patient et de son entourage ;
 Activités à visée sociothérapeutique individuelle ou de groupe ;
 Surveillance des personnes en chambre d'isolement ;
-Surveillance et évaluation des engagements thérapeutiques qui associent le médecin, l'infirmier ou l'infirmière et le patient.
-Au Québec
-Le législateur a créé l'Ordre des infirmières et infirmiers du Québec inscrit dans le Code des professions. L'OIIQ a le pouvoir de créer un Code de déontologie[1] qui doit être respecté par tous ses membres. Le législateur a également créé une Loi des infirmières et infirmiers du Québec (LIIQ)[2] afin de bien circonscrire le champ de pratique de ces professionnels. En 2003, il a révisé le champ de pratique de onze professionnels de la santé dont les infirmières en créant la Loi 90 qui vient modifier la LIIQ.
-Désormais, les infirmières québécoises ont quatorze activités réservées[3].
+Surveillance et évaluation des engagements thérapeutiques qui associent le médecin, l'infirmier ou l'infirmière et le patient.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rôle_propre_infirmier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%B4le_propre_infirmier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Spécificités par pays</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Au Québec</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le législateur a créé l'Ordre des infirmières et infirmiers du Québec inscrit dans le Code des professions. L'OIIQ a le pouvoir de créer un Code de déontologie qui doit être respecté par tous ses membres. Le législateur a également créé une Loi des infirmières et infirmiers du Québec (LIIQ) afin de bien circonscrire le champ de pratique de ces professionnels. En 2003, il a révisé le champ de pratique de onze professionnels de la santé dont les infirmières en créant la Loi 90 qui vient modifier la LIIQ.
+Désormais, les infirmières québécoises ont quatorze activités réservées.
 évaluer la condition physique et mentale d'une personne symptomatique (cela implique un examen physique et mental) ;
 exercer une surveillance clinique de la condition des personnes dont l'état de santé présente des risques, incluant le monitorage et les ajustements du plan thérapeutique infirmier ;
 entreprendre des mesures diagnostiques et thérapeutiques selon une ordonnance ;
